--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,19 +472,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,24 +496,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
@@ -472,19 +472,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,24 +496,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>
@@ -484,24 +484,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,60 +460,60 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
@@ -472,36 +472,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,72 +448,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,24 +484,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,19 +460,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,36 +484,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -460,12 +460,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
@@ -484,31 +484,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
@@ -472,19 +472,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,19 +496,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,67 +448,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,19 +448,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,24 +472,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
@@ -472,48 +472,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,24 +484,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,43 +448,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,36 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>operation_end_time</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>operation_end_time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,19 +496,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/sub_attribute_info.xlsx
@@ -448,19 +448,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>time:timestamp</t>
+          <t>concept:name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>org:resource</t>
+          <t>SubProcessID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -484,36 +484,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SubProcessID</t>
+          <t>stream:datastream</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>dict</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>stream:datastream</t>
+          <t>org:resource</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dict</t>
+          <t>str</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>concept:name</t>
+          <t>time:timestamp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>datetime</t>
         </is>
       </c>
     </row>
